--- a/results/distiluse-base-multilingual-cased-v1/PoliTo_evaluation_metrics.xlsx
+++ b/results/distiluse-base-multilingual-cased-v1/PoliTo_evaluation_metrics.xlsx
@@ -636,67 +636,67 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.02381666666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.02381666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0104</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.00555</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.02381666666666667</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.009533333333333333</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.1904833333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.0182</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.1904833333333333</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.1904833333333333</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.0142</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.1904833333333333</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="3">
@@ -711,94 +711,94 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.01423728813559322</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.02282474576271187</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0242</v>
+        <v>0.0175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.008474576271186444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.0265535593220339</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0188</v>
+        <v>0.0128</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007940476190476189</v>
+        <v>0.006104745762711863</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.02790949152542374</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0135</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.004745762711864409</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.02858745762711865</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0105</v>
+        <v>0.0081</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004761904761904762</v>
+        <v>0.003796610169491526</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.02858745762711865</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0086</v>
+        <v>0.0067</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003964285714285714</v>
+        <v>0.003273559322033898</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.02926542372881357</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0073</v>
+        <v>0.0059</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003404761904761905</v>
+        <v>0.003005423728813558</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.0306213559322034</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0063</v>
+        <v>0.0055</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002976190476190476</v>
+        <v>0.002711864406779662</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.03129932203389832</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0056</v>
+        <v>0.005</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002642857142857143</v>
+        <v>0.002408135593220339</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04523809523809524</v>
+        <v>0.03129932203389832</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002857142857142858</v>
+        <v>0.002305084745762713</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05317380952380952</v>
+        <v>0.03310711864406781</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0054</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="4">
@@ -813,94 +813,94 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0444444444444448</v>
+        <v>0.04289819376026297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1242257183908046</v>
+        <v>0.1159902093596067</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0655</v>
+        <v>0.0626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03151340996168607</v>
+        <v>0.02996031746031926</v>
       </c>
       <c r="G4" t="n">
-        <v>0.17106408045977</v>
+        <v>0.1581772235905853</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0532</v>
+        <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02475378352490399</v>
+        <v>0.02380498084291349</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1972286398467432</v>
+        <v>0.1864599206349193</v>
       </c>
       <c r="K4" t="n">
-        <v>0.044</v>
+        <v>0.0422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.020905172413793</v>
+        <v>0.02020046524357053</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2170855842911877</v>
+        <v>0.2089199165298285</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0381</v>
+        <v>0.0368</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01865900383141734</v>
+        <v>0.0177367268746573</v>
       </c>
       <c r="P4" t="n">
-        <v>0.238733764367816</v>
+        <v>0.2275382320744361</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0346</v>
+        <v>0.0329</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01662399425287363</v>
+        <v>0.01583951833606901</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2549521551724139</v>
+        <v>0.2423044266557158</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0312</v>
+        <v>0.0297</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01522495210727989</v>
+        <v>0.0145231253420921</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2700657088122607</v>
+        <v>0.2567561986863663</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0288</v>
+        <v>0.0275</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01391283524904195</v>
+        <v>0.01337746305418871</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2806887452107282</v>
+        <v>0.2691904009304819</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0265</v>
+        <v>0.0255</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01278103448275884</v>
+        <v>0.01236637246852688</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2891863026819925</v>
+        <v>0.2788668582375423</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0245</v>
+        <v>0.0237</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01200191570881207</v>
+        <v>0.01161056376573683</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2995728927203068</v>
+        <v>0.2898037287903611</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0231</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="5">
@@ -915,94 +915,94 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04307065217391346</v>
+        <v>0.04539853490516013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1178633152173913</v>
+        <v>0.1239901421433068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0631</v>
+        <v>0.0665</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03053668478260849</v>
+        <v>0.03191190025712269</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1636950407608697</v>
+        <v>0.1693412458157433</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0515</v>
+        <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02435305706521702</v>
+        <v>0.02583788385970351</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1953490149456525</v>
+        <v>0.2022967835831696</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0433</v>
+        <v>0.0458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02072010869565185</v>
+        <v>0.02180177557852131</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2184928668478264</v>
+        <v>0.225320108669281</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0379</v>
+        <v>0.0398</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01836956521739099</v>
+        <v>0.01914908067724444</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2387618206521744</v>
+        <v>0.2447552757968225</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0341</v>
+        <v>0.0355</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01640638586956491</v>
+        <v>0.01721591228836098</v>
       </c>
       <c r="S5" t="n">
-        <v>0.252255298913044</v>
+        <v>0.2622039974773157</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0308</v>
+        <v>0.0323</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01502258831521723</v>
+        <v>0.0157034735361177</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2665371942934788</v>
+        <v>0.2774387910541851</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0284</v>
+        <v>0.0297</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01390115489130403</v>
+        <v>0.01449934507349764</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.28005754076087</v>
+        <v>0.2918020569543456</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0265</v>
+        <v>0.0276</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01292598505434794</v>
+        <v>0.01340430310968715</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2916933763586962</v>
+        <v>0.3023118420414271</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0248</v>
+        <v>0.0257</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0120176630434782</v>
+        <v>0.01251831368553987</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3002050271739136</v>
+        <v>0.3124570756318806</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0231</v>
+        <v>0.0241</v>
       </c>
     </row>
     <row r="6">
@@ -1017,94 +1017,94 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.04201680672268909</v>
+        <v>0.0301435406698564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07993193277310925</v>
+        <v>0.0573617224880383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0551</v>
+        <v>0.0395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0277310924369748</v>
+        <v>0.02093301435406696</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1054915966386555</v>
+        <v>0.08050035885167467</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0439</v>
+        <v>0.0332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02017647058823529</v>
+        <v>0.01771076555023932</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1125747899159664</v>
+        <v>0.09829258373205742</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0342</v>
+        <v>0.03</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01764705882352942</v>
+        <v>0.01537081339712923</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1235924369747899</v>
+        <v>0.1158346889952153</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0309</v>
+        <v>0.0271</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0157983193277311</v>
+        <v>0.01363636363636357</v>
       </c>
       <c r="P6" t="n">
-        <v>0.134936974789916</v>
+        <v>0.1250858851674641</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0283</v>
+        <v>0.0246</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01427815126050421</v>
+        <v>0.01247165071770337</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1438403361344538</v>
+        <v>0.1365517942583732</v>
       </c>
       <c r="T6" t="n">
-        <v>0.026</v>
+        <v>0.0229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296974789915965</v>
+        <v>0.01145586124401918</v>
       </c>
       <c r="V6" t="n">
-        <v>0.157146218487395</v>
+        <v>0.1473002392344497</v>
       </c>
       <c r="W6" t="n">
-        <v>0.024</v>
+        <v>0.0213</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01155462184873949</v>
+        <v>0.01052631578947373</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1613478991596639</v>
+        <v>0.153545933014354</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0216</v>
+        <v>0.0197</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0106344537815126</v>
+        <v>0.009693301435406693</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1639495798319328</v>
+        <v>0.1579447368421052</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02</v>
+        <v>0.0183</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01025210084033614</v>
+        <v>0.009090909090909031</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1735663865546218</v>
+        <v>0.1642492822966507</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0194</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="7">
@@ -1119,94 +1119,94 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0334038054968287</v>
+        <v>0.03682463024449174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09205919661733615</v>
+        <v>0.1008846362813161</v>
       </c>
       <c r="E7" t="n">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02515856236786464</v>
+        <v>0.02604889827950483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1316644820295983</v>
+        <v>0.1392655599154845</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0422</v>
+        <v>0.0439</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0195974630021142</v>
+        <v>0.02123724720796829</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1452329809725159</v>
+        <v>0.1669877754301238</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0345</v>
+        <v>0.0377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01744186046511625</v>
+        <v>0.01818593419861126</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1717503171247358</v>
+        <v>0.1892660428614551</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0317</v>
+        <v>0.0332</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01640591966173363</v>
+        <v>0.01643223664352523</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2024213530655391</v>
+        <v>0.2094722306067011</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0304</v>
+        <v>0.0305</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01549513742071878</v>
+        <v>0.01493169332930849</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2308966173361522</v>
+        <v>0.2275172049501967</v>
       </c>
       <c r="T7" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0137183932346723</v>
+        <v>0.01353842438877134</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2369733615221987</v>
+        <v>0.2390395412013287</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0259</v>
+        <v>0.0256</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01257928118393237</v>
+        <v>0.01245095079987897</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2490794926004228</v>
+        <v>0.2506171747660738</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0239</v>
+        <v>0.0237</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01182811839323469</v>
+        <v>0.01159329912466055</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2636674418604651</v>
+        <v>0.2603031391488085</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0226</v>
+        <v>0.0222</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01095137420718813</v>
+        <v>0.0108602475098098</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2700805496828752</v>
+        <v>0.2700899486869914</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.021</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="8">
@@ -1221,94 +1221,94 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04126984126984128</v>
+        <v>0.04689966178128527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1249992063492063</v>
+        <v>0.1379405862457723</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0621</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02936507936507938</v>
+        <v>0.03077790304396854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1819539682539683</v>
+        <v>0.1788360766629087</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0506</v>
+        <v>0.0525</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02222936507936508</v>
+        <v>0.02466166854565969</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2013984126984127</v>
+        <v>0.2130633596392333</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04</v>
+        <v>0.0442</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01944444444444444</v>
+        <v>0.02096956031567091</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2247674603174603</v>
+        <v>0.2353420518602029</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0358</v>
+        <v>0.0385</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01841269841269842</v>
+        <v>0.01880496054114979</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2673595238095239</v>
+        <v>0.2629254791431792</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0345</v>
+        <v>0.0351</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01744920634920637</v>
+        <v>0.01682401352874868</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2967246031746033</v>
+        <v>0.2826648252536639</v>
       </c>
       <c r="T8" t="n">
-        <v>0.033</v>
+        <v>0.0318</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01542857142857141</v>
+        <v>0.01524532130777916</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3125976190476191</v>
+        <v>0.2936781285231115</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0294</v>
+        <v>0.029</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01408730158730157</v>
+        <v>0.01395152198421656</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.332438888888889</v>
+        <v>0.3081463359639232</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.027</v>
+        <v>0.0267</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01286269841269841</v>
+        <v>0.01274013528748586</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3373992063492064</v>
+        <v>0.3156989853438557</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0248</v>
+        <v>0.0245</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01174603174603175</v>
+        <v>0.01190529875986459</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3385333333333334</v>
+        <v>0.3255462232243517</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0227</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="9">
@@ -1323,94 +1323,94 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04563758389261748</v>
+        <v>0.04229665071770342</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1114073825503356</v>
+        <v>0.1067964593301435</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0648</v>
+        <v>0.0606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03691275167785234</v>
+        <v>0.03090909090909104</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1771315436241611</v>
+        <v>0.15254995215311</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0611</v>
+        <v>0.0514</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02954093959731544</v>
+        <v>0.02610114832535901</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2051597315436242</v>
+        <v>0.1894178947368421</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0516</v>
+        <v>0.0459</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02382550335570468</v>
+        <v>0.02186602870813412</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2273073825503356</v>
+        <v>0.2091168421052632</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0431</v>
+        <v>0.0396</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02013422818791948</v>
+        <v>0.01902392344497589</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2345302013422819</v>
+        <v>0.2231781818181819</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0371</v>
+        <v>0.0351</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01788590604026848</v>
+        <v>0.01756631578947381</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2501906040268457</v>
+        <v>0.2431804784688996</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0334</v>
+        <v>0.0328</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01649999999999999</v>
+        <v>0.0158923444976078</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2678637583892618</v>
+        <v>0.2545239234449761</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0311</v>
+        <v>0.0299</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01560402684563756</v>
+        <v>0.01468899521531112</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2862087248322148</v>
+        <v>0.2695958851674642</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0296</v>
+        <v>0.0279</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01445436241610739</v>
+        <v>0.0136611483253588</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2949335570469799</v>
+        <v>0.2810404784688995</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0276</v>
+        <v>0.0261</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01395973154362417</v>
+        <v>0.01278468899521516</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3167456375838926</v>
+        <v>0.2912728229665072</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0267</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="10">
@@ -1425,94 +1425,94 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03091787439613522</v>
+        <v>0.029484820607176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05011497584541062</v>
+        <v>0.0437967801287948</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0382</v>
+        <v>0.0352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02109500805152975</v>
+        <v>0.021780128794848</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06521014492753625</v>
+        <v>0.06334471021159142</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0319</v>
+        <v>0.0324</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01718293075684384</v>
+        <v>0.01786936522539069</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08006119162640905</v>
+        <v>0.07673235970561164</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0283</v>
+        <v>0.029</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01521739130434782</v>
+        <v>0.01532888684452592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09232979066022554</v>
+        <v>0.08684346826126939</v>
       </c>
       <c r="N10" t="n">
         <v>0.0261</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01359098228663446</v>
+        <v>0.01382704691812303</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1057911433172304</v>
+        <v>0.09757723091076338</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0241</v>
+        <v>0.0242</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01260611916264087</v>
+        <v>0.01251862925482949</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1178001610305959</v>
+        <v>0.1062925712971479</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0228</v>
+        <v>0.0224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01160080515297906</v>
+        <v>0.0115126954921801</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1254756843800323</v>
+        <v>0.1141280588776446</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0212</v>
+        <v>0.0209</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01078904991948472</v>
+        <v>0.01072332106715702</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1328832528180355</v>
+        <v>0.1210849816007357</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.02</v>
+        <v>0.0197</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01015378421900162</v>
+        <v>0.01007948482060722</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1402212560386474</v>
+        <v>0.128110717571297</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0189</v>
+        <v>0.0187</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.009597423510466947</v>
+        <v>0.009530818767249385</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1465014492753624</v>
+        <v>0.1349510119595216</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.018</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="11">
@@ -1527,94 +1527,94 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02877697841726616</v>
+        <v>0.03051659254190923</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04742685851318945</v>
+        <v>0.05472517960998967</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0358</v>
+        <v>0.0392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02374100719424456</v>
+        <v>0.0237769414984606</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08900839328537173</v>
+        <v>0.08404218268901811</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0375</v>
+        <v>0.0371</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01967146282973622</v>
+        <v>0.01962186110160771</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1054647482014389</v>
+        <v>0.1038516934656175</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0332</v>
+        <v>0.033</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01726618705035968</v>
+        <v>0.01705439616832006</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1208455635491607</v>
+        <v>0.1183767020184741</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0302</v>
+        <v>0.0298</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01563549160671464</v>
+        <v>0.01536777283612702</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1357767386091127</v>
+        <v>0.1321096818337324</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.028</v>
+        <v>0.0275</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01414004796163068</v>
+        <v>0.01405237769414972</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1441026378896883</v>
+        <v>0.1429807389668149</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0258</v>
+        <v>0.0256</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01288824940047961</v>
+        <v>0.01289952104002734</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1546369304556356</v>
+        <v>0.1525910708176531</v>
       </c>
       <c r="W11" t="n">
         <v>0.0238</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01217026378896883</v>
+        <v>0.01197399931577125</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1643851318944845</v>
+        <v>0.1605561751625043</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0227</v>
+        <v>0.0223</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01139328537170266</v>
+        <v>0.01110458433116684</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.173964268585132</v>
+        <v>0.1674984262743757</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0214</v>
+        <v>0.0208</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01079136690647481</v>
+        <v>0.01048922340061563</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1832062350119905</v>
+        <v>0.1756616489907629</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0204</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="12">
@@ -1625,94 +1625,94 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.03285856058613552</v>
+        <v>0.03186999133634384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07813619195901167</v>
+        <v>0.07643104613496801</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04578</v>
+        <v>0.04451000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0237958357742602</v>
+        <v>0.02245727708685684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1130457345218026</v>
+        <v>0.105261086921215</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03906999999999999</v>
+        <v>0.03674</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01854459486342073</v>
+        <v>0.01829496664215536</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1287707604988858</v>
+        <v>0.1265011862452999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03226</v>
+        <v>0.03178</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01584201075053281</v>
+        <v>0.01638569564996811</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1441409497553817</v>
+        <v>0.1441423945594775</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02843</v>
+        <v>0.02913</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01417681132941448</v>
+        <v>0.01444413884083245</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1603549615191689</v>
+        <v>0.1575046321645066</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02597</v>
+        <v>0.02625</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01288492340316937</v>
+        <v>0.01302436702606774</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1736000508915892</v>
+        <v>0.1696778127723608</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02393</v>
+        <v>0.02404</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01167580694431211</v>
+        <v>0.01233095239107416</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1836534570625977</v>
+        <v>0.1956560641105252</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02189</v>
+        <v>0.02314</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0107574725790601</v>
+        <v>0.0113237110039608</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1932327771403404</v>
+        <v>0.2046321598927114</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02034</v>
+        <v>0.02141</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00996765792742213</v>
+        <v>0.01044507644961203</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2000253083991147</v>
+        <v>0.2113557839295543</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01896</v>
+        <v>0.01987</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.009417475036355507</v>
+        <v>0.009776181538736967</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2081585320860106</v>
+        <v>0.2187622194524428</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01798</v>
+        <v>0.01868</v>
       </c>
     </row>
   </sheetData>
@@ -1898,94 +1898,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0186046511627907</v>
+        <v>0.01395348837209303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03255813953488372</v>
+        <v>0.02236976744186047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0237</v>
+        <v>0.0172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01162790697674419</v>
+        <v>0.008305647840531564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.02602425249169436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0184</v>
+        <v>0.0126</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007755813953488371</v>
+        <v>0.005983056478405315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.02735315614617941</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0132</v>
+        <v>0.0098</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005813953488372093</v>
+        <v>0.004817275747508308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.02849235880398672</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0103</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004651162790697674</v>
+        <v>0.003853820598006646</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.02849235880398672</v>
       </c>
       <c r="P2" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0068</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.003872093023255814</v>
+        <v>0.003318936877076412</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.02915681063122924</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0071</v>
+        <v>0.006</v>
       </c>
       <c r="T2" t="n">
-        <v>0.003325581395348838</v>
+        <v>0.003135548172757473</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.03380797342192692</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0062</v>
+        <v>0.0057</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002906976744186046</v>
+        <v>0.002823920265780732</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.03447242524916945</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0055</v>
+        <v>0.0052</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002581395348837209</v>
+        <v>0.002507641196013289</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04418604651162791</v>
+        <v>0.03447242524916945</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0049</v>
+        <v>0.0047</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.002790697674418605</v>
+        <v>0.002392026578073091</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05193720930232558</v>
+        <v>0.03624418604651164</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0053</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="3">
@@ -1995,94 +1995,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04364069952305177</v>
+        <v>0.04436117970990394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1205033585055645</v>
+        <v>0.1206710863209249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0641</v>
+        <v>0.0649</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03094197138314704</v>
+        <v>0.03110221692356017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1667527821939591</v>
+        <v>0.1647094552783192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0522</v>
+        <v>0.0523</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02451933624801219</v>
+        <v>0.02499446194896035</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1961289546899846</v>
+        <v>0.1957262993556436</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0436</v>
+        <v>0.0443</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02079689984101682</v>
+        <v>0.02113741519770421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2179089228934823</v>
+        <v>0.2185159073490593</v>
       </c>
       <c r="M3" t="n">
-        <v>0.038</v>
+        <v>0.0385</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01848966613672541</v>
+        <v>0.01856311561497622</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2387501788553267</v>
+        <v>0.2376121746288584</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0343</v>
+        <v>0.0344</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01649668124006287</v>
+        <v>0.01664486644526023</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2533743441971392</v>
+        <v>0.2539479548099601</v>
       </c>
       <c r="S3" t="n">
-        <v>0.031</v>
+        <v>0.0312</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01510655802861634</v>
+        <v>0.01521376422833168</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2680013314785383</v>
+        <v>0.2688578841295558</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0286</v>
+        <v>0.0288</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01390600158982489</v>
+        <v>0.01403389253171793</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2803194554848977</v>
+        <v>0.2824208095603099</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0265</v>
+        <v>0.0267</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01286583863275018</v>
+        <v>0.01297368077436118</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2906530802861695</v>
+        <v>0.2925848590649803</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0246</v>
+        <v>0.0248</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01201112877583516</v>
+        <v>0.01214170143915382</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2999427265500806</v>
+        <v>0.3030585313236325</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0231</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4">
@@ -2092,94 +2092,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03513513513513507</v>
+        <v>0.03547842853699695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08962145270270271</v>
+        <v>0.09211501566642567</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0505</v>
+        <v>0.0512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02567567567567562</v>
+        <v>0.02501807664497437</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1264033783783784</v>
+        <v>0.1274247047481321</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0427</v>
+        <v>0.0418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01971385135135141</v>
+        <v>0.02052668112798228</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1386682432432433</v>
+        <v>0.153146083393589</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0345</v>
+        <v>0.0362</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01748310810810811</v>
+        <v>0.01761870330200009</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1620699324324324</v>
+        <v>0.174470040973729</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0316</v>
+        <v>0.032</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01628378378378375</v>
+        <v>0.01586888406845</v>
       </c>
       <c r="O4" t="n">
-        <v>0.188856081081081</v>
+        <v>0.1924688599662575</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03</v>
+        <v>0.0293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01525050675675674</v>
+        <v>0.01443600867678916</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2133971283783783</v>
+        <v>0.2091881899252838</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0285</v>
+        <v>0.027</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01356790540540541</v>
+        <v>0.01311879971077338</v>
       </c>
       <c r="U4" t="n">
-        <v>0.220927027027027</v>
+        <v>0.2205545914678242</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0256</v>
+        <v>0.0248</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01237331081081085</v>
+        <v>0.01206314774644458</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2314442567567566</v>
+        <v>0.231057869366113</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0235</v>
+        <v>0.0229</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01158817567567567</v>
+        <v>0.01121046035189202</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.243622804054054</v>
+        <v>0.2396785008435774</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0221</v>
+        <v>0.0214</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01081081081081075</v>
+        <v>0.0105037358399616</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2506798986486486</v>
+        <v>0.2487636538925048</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0207</v>
+        <v>0.0202</v>
       </c>
     </row>
     <row r="5">
@@ -2189,94 +2189,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04363636363636361</v>
+        <v>0.04440993788819907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1176349090909091</v>
+        <v>0.1210950310559007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0334545454545454</v>
+        <v>0.03084886128364417</v>
       </c>
       <c r="F5" t="n">
-        <v>0.179341090909091</v>
+        <v>0.1646181677018634</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0564</v>
+        <v>0.052</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02619090909090909</v>
+        <v>0.02544026915113854</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2034363636363637</v>
+        <v>0.2002737577639752</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0464</v>
+        <v>0.0451</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02181818181818178</v>
+        <v>0.02145445134575565</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2261436363636365</v>
+        <v>0.2211570910973086</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0398</v>
+        <v>0.0391</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01934545454545456</v>
+        <v>0.01892339544513429</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2495720000000001</v>
+        <v>0.2414265527950311</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0359</v>
+        <v>0.0351</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01768581818181818</v>
+        <v>0.01722551759834381</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2715116363636364</v>
+        <v>0.2613081262939959</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0332</v>
+        <v>0.0323</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0160090909090909</v>
+        <v>0.01559528985507263</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2883599999999999</v>
+        <v>0.2725000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0303</v>
+        <v>0.0295</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01490909090909088</v>
+        <v>0.01435041407867482</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3073905454545454</v>
+        <v>0.2872947722567289</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0284</v>
+        <v>0.0273</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01372509090909095</v>
+        <v>0.01323830227743287</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3143905454545454</v>
+        <v>0.2969525362318842</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0263</v>
+        <v>0.0253</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01294545454545456</v>
+        <v>0.01238095238095218</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3267283636363636</v>
+        <v>0.3070080745341617</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0249</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="6">
@@ -2286,94 +2286,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03005780346820802</v>
+        <v>0.02989960115527392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04903506743737961</v>
+        <v>0.04819008389492505</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0373</v>
+        <v>0.0369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0221579961464355</v>
+        <v>0.02258286343006403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07477071290944126</v>
+        <v>0.07166525924907166</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0342</v>
+        <v>0.0343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01818265895953768</v>
+        <v>0.01857388254710454</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09026666666666665</v>
+        <v>0.08763454820519906</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0303</v>
+        <v>0.0307</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01604046242774574</v>
+        <v>0.01602255535689671</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1037855491329479</v>
+        <v>0.09952007976894554</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0278</v>
+        <v>0.0276</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01441233140655096</v>
+        <v>0.01444643102736949</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1178373795761078</v>
+        <v>0.1114595516435159</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0257</v>
+        <v>0.0256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01322235067437386</v>
+        <v>0.01313520836198535</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1283667630057802</v>
+        <v>0.1210415073579982</v>
       </c>
       <c r="S6" t="n">
-        <v>0.024</v>
+        <v>0.0237</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01211801541425829</v>
+        <v>0.01207021042497552</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1371907514450866</v>
+        <v>0.1295904964929178</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0223</v>
+        <v>0.0221</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01134393063583822</v>
+        <v>0.01122610369962872</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1455386319845857</v>
+        <v>0.136952716270115</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.021</v>
+        <v>0.0208</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01065173410404622</v>
+        <v>0.01049158300096249</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1537769749518303</v>
+        <v>0.143944890661533</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0199</v>
+        <v>0.0196</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01007707129094402</v>
+        <v>0.00991610507495555</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1612470134874759</v>
+        <v>0.1513170127905389</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.019</v>
+        <v>0.0186</v>
       </c>
     </row>
   </sheetData>
@@ -2559,94 +2559,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04135363790186164</v>
+        <v>0.03972357802155529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1068583756345178</v>
+        <v>0.09935963852510594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0596</v>
+        <v>0.0568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02906937394247026</v>
+        <v>0.02790315565650485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1465844331641285</v>
+        <v>0.1359525926641827</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0485</v>
+        <v>0.0463</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02286240270727547</v>
+        <v>0.02234140530614521</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1693076142131979</v>
+        <v>0.1609283477504425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0403</v>
+        <v>0.0392</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01950930626057503</v>
+        <v>0.01901125984632718</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1873569204737737</v>
+        <v>0.1805875416807565</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0353</v>
+        <v>0.0344</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01746192893400986</v>
+        <v>0.01679215193543822</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2077553976311343</v>
+        <v>0.1975496158121039</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0322</v>
+        <v>0.031</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01571472081218249</v>
+        <v>0.0150448895761844</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2233496785109992</v>
+        <v>0.2111199681051506</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0294</v>
+        <v>0.0281</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01437604060913694</v>
+        <v>0.01379616778620867</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2368545854483935</v>
+        <v>0.223928661866327</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0271</v>
+        <v>0.026</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01316412859560039</v>
+        <v>0.01272773401633553</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2469327580372261</v>
+        <v>0.2350455468032619</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.025</v>
+        <v>0.0241</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01214162436548242</v>
+        <v>0.01179244188856054</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2547954991539774</v>
+        <v>0.2438579761271883</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0232</v>
+        <v>0.0225</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01141116751269022</v>
+        <v>0.01108297491905613</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.26389008460237</v>
+        <v>0.2536970521432325</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0219</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="3">
@@ -2656,94 +2656,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04029813664596261</v>
+        <v>0.04240661250842961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10641249689441</v>
+        <v>0.1123962148355715</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0585</v>
+        <v>0.0616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02924223602484426</v>
+        <v>0.03009684628756298</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1514545590062115</v>
+        <v>0.1548448401858841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.049</v>
+        <v>0.0504</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02332996273291885</v>
+        <v>0.02445587285820717</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1789441739130441</v>
+        <v>0.1856365106956583</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0413</v>
+        <v>0.0432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01993788819875728</v>
+        <v>0.02070843236723638</v>
       </c>
       <c r="L3" t="n">
-        <v>0.201401813664597</v>
+        <v>0.2073339706977877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0363</v>
+        <v>0.0377</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01777888198757757</v>
+        <v>0.0182723757494086</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2216457142857151</v>
+        <v>0.2258658732129538</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0329</v>
+        <v>0.0338</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0159894409937883</v>
+        <v>0.01648649827947031</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2363038260869574</v>
+        <v>0.2426217709035424</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03</v>
+        <v>0.0309</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01458166459627291</v>
+        <v>0.01503238497285988</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2492097391304357</v>
+        <v>0.2565475291780471</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0276</v>
+        <v>0.0284</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01351552795031015</v>
+        <v>0.01388041434601981</v>
       </c>
       <c r="X3" t="n">
-        <v>0.262210608695653</v>
+        <v>0.269803015360601</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0257</v>
+        <v>0.0264</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01258745341614901</v>
+        <v>0.01284744049097079</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2737511055900632</v>
+        <v>0.2797707190748162</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0241</v>
+        <v>0.0246</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01174161490683254</v>
+        <v>0.01201603462343449</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2825781614906844</v>
+        <v>0.2895842846500411</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0225</v>
+        <v>0.0231</v>
       </c>
     </row>
   </sheetData>
